--- a/materiais/modelos_excel/lista_produtos_cadastrados.xlsx
+++ b/materiais/modelos_excel/lista_produtos_cadastrados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dvmsys_new\materiais\modelos_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developer\XAMPP\htdocs\erp_sistema\materiais\modelos_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
